--- a/Output/Encounter_Records_Output.xlsx
+++ b/Output/Encounter_Records_Output.xlsx
@@ -41,7 +41,7 @@
     <x:t>EndDate</x:t>
   </x:si>
   <x:si>
-    <x:t>0f1be0aa-c98a-4c57-93e8-80962bbb8afa</x:t>
+    <x:t>6a31476b-855f-4a5b-95cc-7cdc988b2bb1</x:t>
   </x:si>
   <x:si>
     <x:t>Luminis Health</x:t>
@@ -53,7 +53,7 @@
     <x:t>2/3/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>e5fc1be4-e201-4cae-8f4d-4eef4389477a</x:t>
+    <x:t>7ac5e63b-2799-4d5e-9a09-c9b51148363f</x:t>
   </x:si>
   <x:si>
     <x:t>Johns Hopkins</x:t>
@@ -68,13 +68,13 @@
     <x:t>2/4/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>4d6e435a-0990-4f12-9bae-993296d3132a</x:t>
+    <x:t>07343c69-924c-46a0-a9cc-cfc06d227055</x:t>
   </x:si>
   <x:si>
     <x:t>2/5/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>47a07ad6-550f-4102-9290-ca0934faa64d</x:t>
+    <x:t>c036d245-939c-4dc1-a6d3-6973df46fccb</x:t>
   </x:si>
   <x:si>
     <x:t>Sinai Hospital</x:t>
@@ -83,7 +83,7 @@
     <x:t>2/7/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>b4544d3b-c08c-4ffc-8c72-7a9acab9c932</x:t>
+    <x:t>6b6088e3-9a31-4641-9f40-400f732696fe</x:t>
   </x:si>
   <x:si>
     <x:t>Meritus Medical Center</x:t>
@@ -95,85 +95,85 @@
     <x:t>2/8/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>471d0925-8711-4ff7-a094-ea2de22644f1</x:t>
+    <x:t>4286e790-4b4a-41d5-9f83-1b8780e209a7</x:t>
   </x:si>
   <x:si>
     <x:t>Unspecified</x:t>
   </x:si>
   <x:si>
-    <x:t>c080bdc6-6823-4288-bbd2-948ff7ae77c8</x:t>
+    <x:t>04063469-725e-453b-9d67-b12b5c8010e2</x:t>
   </x:si>
   <x:si>
     <x:t>University of Maryland Medical Center</x:t>
   </x:si>
   <x:si>
-    <x:t>5473d762-bf93-4fe9-bb48-f1b878e4bf62</x:t>
+    <x:t>59cd3a7b-1fd2-431d-abbe-8e52c5d158a4</x:t>
   </x:si>
   <x:si>
     <x:t>2/26/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>77ad03fc-e1db-4893-83af-664a87c808c1</x:t>
+    <x:t>49331180-438c-4413-9e34-938148d8db54</x:t>
   </x:si>
   <x:si>
     <x:t>2/2/2023</x:t>
   </x:si>
   <x:si>
-    <x:t>2948a8e0-559f-40db-801a-37446d544a70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>565962c6-6106-439f-8ca1-ff49baca7845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ab729bbe-d196-4be7-924b-ccd5056ae55a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a8430374-9655-4126-8122-5e05af970983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3dad6117-1d1c-4853-a159-95eaa267e50f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cb9ece4f-b0dc-4783-b1b4-d1145e010b76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a82a444c-d776-4387-bc85-18d3b1f8830c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>435a8e89-7523-4d08-88ca-3a3bdba1e7c8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8b40c04d-3ef4-4783-b238-239cc8b921ba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173dee57-a117-4d8c-afce-b1c60469d2da</x:t>
-  </x:si>
-  <x:si>
-    <x:t>019aa463-f664-462f-8227-3195acb9e622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6d1abaec-dbb9-49c1-928d-182fcef2b935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0030b679-bd34-4446-b682-a893c5018ac1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ba3ea71f-7d5e-48ad-8327-f9f2ef02dc1d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18454549-a27d-4dd6-b2b1-a223a6d48e9a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>424d037d-f237-48bc-976c-5c2e9189cd1c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ea5b7649-c244-4171-9fe3-21a063b8f34e</x:t>
+    <x:t>78f1bf46-22ff-4071-ab2a-95657fbb3f11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4c8c7ee9-a623-4b4b-9343-61ad5ac61653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f44a23e6-81fb-4de8-9237-94e2578dea48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47b6762f-5b5b-4186-a471-905c71154982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c5c3d88d-7ec9-43af-8b83-7056dea68840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330a5a39-61ad-41c5-a9d4-fe5a9cf51b7a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86f703c1-8ebc-43e7-a523-210e01ae984e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a832484c-b4f9-4bb5-a612-07b69e3fe747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3c7479b0-d152-453f-ab8e-370cedf88935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07130a30-0487-43da-9b60-2a49865ff1a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cb86aa35-2c32-4aa2-a169-e40d670a9698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9494c906-f6e3-4fcd-aa82-00f7d123adf6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7dc341cf-ba24-4885-89b0-0c5278c39d7e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8aa8c94a-6c49-4ab8-aef8-a8036de37bd9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d52f1a26-e106-4920-b9e3-32cda092af03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>721dcb6e-fa4b-4938-b41b-2d2ec8306e50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2d4b3e2c-d796-4cb9-a8c5-b5454e8212e3</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>37062b87-784a-40e3-814e-4179c92993ca</x:t>
+    <x:t>5f033474-1df9-40dd-ba1d-788c5ab2fa89</x:t>
   </x:si>
   <x:si>
     <x:t>1/20/2023</x:t>
@@ -182,58 +182,58 @@
     <x:t>Discharge event received before any admit event for patient 103784.</x:t>
   </x:si>
   <x:si>
-    <x:t>60582d3f-666c-4d26-b317-f973f972357c</x:t>
+    <x:t>951f5846-d42d-4e6b-a9ae-7abe386cd879</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 25176.</x:t>
   </x:si>
   <x:si>
-    <x:t>f39857a7-5449-4fdc-9f9b-331a3330199b</x:t>
+    <x:t>4a659837-b077-4bfa-9079-5091b9eaaa9d</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 255841.</x:t>
   </x:si>
   <x:si>
-    <x:t>47321c0d-d8e4-4c9d-9398-7fc33d72a07e</x:t>
+    <x:t>2682332b-cd79-4112-92f1-5d01852dfc8c</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 256231.</x:t>
   </x:si>
   <x:si>
-    <x:t>a7f738b6-e115-4aa5-af9e-75592ddcd086</x:t>
+    <x:t>1dff146a-2553-4352-8744-6e7f5aa9ff60</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 274924.</x:t>
   </x:si>
   <x:si>
-    <x:t>05b464da-7423-44f4-a94d-3353c287fd65</x:t>
+    <x:t>edbe4bec-4a18-4b68-89ba-65edda7fdb5a</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 281265.</x:t>
   </x:si>
   <x:si>
-    <x:t>53b52a68-a51a-4720-b472-f01dbf2f33b3</x:t>
+    <x:t>89ee4aa3-dd3f-49c0-b1de-b5d1161dc3b4</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 286758.</x:t>
   </x:si>
   <x:si>
-    <x:t>5ca94c62-7b28-42b5-b12f-edf581dfe02e</x:t>
+    <x:t>b759ee07-2b5a-4511-9911-c52a374a9110</x:t>
   </x:si>
   <x:si>
     <x:t>Patient admitted to 'Meritus Medical Center' without being discharged from previous hospital 'Johns Hopkins'.</x:t>
   </x:si>
   <x:si>
-    <x:t>19f80e1d-c132-469f-812c-42946d5fba98</x:t>
+    <x:t>9bab7729-f2fe-4554-a2da-8ae9cb2194f1</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 188107.</x:t>
   </x:si>
   <x:si>
-    <x:t>34ddd673-93fb-40bb-b376-f8fe051a2f51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35ac78b6-50aa-41a0-8cd9-fc81d867f150</x:t>
+    <x:t>1f71bc7b-7ea4-46b5-b050-8524599bd7b7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43c4bf4c-48c9-4917-b997-ac9a81889f71</x:t>
   </x:si>
   <x:si>
     <x:t>Discharge event received before any admit event for patient 25172.</x:t>
